--- a/biology/Histoire de la zoologie et de la botanique/Ernest_Tyssandier_d'Escous/Ernest_Tyssandier_d'Escous.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Ernest_Tyssandier_d'Escous/Ernest_Tyssandier_d'Escous.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ernest_Tyssandier_d%27Escous</t>
+          <t>Ernest_Tyssandier_d'Escous</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ernest Tyssandier d'Escous né à Salers le 21 décembre 1813 et mort dans la même ville le 18 janvier 1889 est un agronome, un éleveur et un homme politique français.
-Il fut à la suite de Louis-Furcy Grognier, le restaurateur de la race bovine de Salers qui tombait dans la décadence et l'oubli. « Grâce à lui, les vaches rouges qui font la fierté du Cantal ont atteint leur niveau de beauté et leurs exceptionnelles qualités[1] ».
+Il fut à la suite de Louis-Furcy Grognier, le restaurateur de la race bovine de Salers qui tombait dans la décadence et l'oubli. « Grâce à lui, les vaches rouges qui font la fierté du Cantal ont atteint leur niveau de beauté et leurs exceptionnelles qualités ».
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ernest_Tyssandier_d%27Escous</t>
+          <t>Ernest_Tyssandier_d'Escous</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,20 +524,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gabriel, Pierre, Marie-de-Lorette, Ernest, Philogone Tyssandier d'Escous[2] est le fils aîné de Jean-Marie Tyssandier d'Escous, maire de Salers, et d'Iphigénie de Léotoing d'Anjony, fille de Claude-Louis de Léotoing (1750-1821), seigneur d'Anjony et de Bellestat, et de Catherine de Méallet de Fargues. De son mariage avec Marguerite Louise Charlotte de Pollalion de Glavenas, fille de Louis-Hercule de Pollalion, chasseur à cheval, et de Jeanne-Émilie de Sales du Doux (à Yolet), il eut six enfants[1].
-Par sa femme, Ernest Tyssandier d'Escous est l'oncle de Louis-Félix de La Salle de Rochemaure (connu plus tard comme duc de La Salle de Rochemaure (titre pontifical en 1899)[3], qui reconstruira dans le style troubadour le château de Clavières-Ayrens, contribuera à la fondation de La Veillée d'Auvergne et à la sauvegarde du dialecte carladézien.
-Origine familiale
-La famille Tyssandier est une ancienne famille subsistante de Haute-Auvergne dont le nom veut dire Tisserand. Elle est originaire du bailliage d'Apchon d'où elle s'est transposée à la fin du XVIe siècle à Salers lorsqu'y a été transféré le Bailliage des Montagnes d'Auvergne. « Le premier auteur connu Gabriel Tyssandier ou plutôt Teyssandier, notarius ville Apchonii, était possessionné en 1512, au lieu de La Croze, paroisse de Collandres (Terrier d'Apchon suscité). On trouve après lui au village voisin de Peuvendrier (Puy Vendrier),  Antoine Tyssandier, juge ordinaire d'Apchon, et Jacques Tyssandier époux de Michelle de Cheyvialle, lieutenant particulier du Vaulmier.  Leur fils Antoine épousa le 9 février 1651 Jeanne Deflisque, fille de Jacques, coseigneur de La Garde, et de Gabrielle de La Broha, suivant contrat passé devant Garinot, notaire, de ce mariage vint Jean Tyssandier seigneur de Chaylus et de Puy-Vendrier, vivant en 1678 (Archives du Puy-de-Dôme, Fonds Ribier-Sartiges, liasse 14). C'est de cette souche que sont sortis les Tyssandier d'Escoutz qui émigrèrent du bailliage d'Apchon à celui de Salers [4],[5]».
-L'ancien fief d'Escouts a été apporté à la famille Tyssandier par le mariage en 1703 à Saint-Bonnet-de-Salers de François Tyssandier, lieutenant particulier civil et criminel au bailliage de Salers[6] et de Jeanne-Louise de Landrodie, dame d'Escous, petite-fille de Jean de Landrodie, seigneur de Malpertuis et gentilhomme du prince de Condé, et de Jeanne de Saint-Julien, dame d'Escouts en 1601. La famille Tyssandier posséda aussi le fief de La Croze et, après 1781, celui de Leybros à Saint-Bonnet-de-Salers. Elle possédait non loin d'Escous, un petit château à Roche-Soutro[7]. Elle éleva sur ses propriétés des chevaux de guerre et de trait. 
-Malgré un nom d'apparence nobiliaire (elle a ajouté le nom de la terre d'Escous  au XVIIIe siècle à son nom), la famille Tyssandier d'Escous n'a pas de principe de noblesse connu[8].
-L'ouvrage Le Nécrologe universel du XIXe siècle (1845) mentionne pour Jean-Marie Tyssandier d'Escous, maire de Salers (mort en 1845) les armes suivantes : « Parti d'azur aux deux croix d'argent et à la massue de même et de gueules aux trois étoiles d'argent et au lion de même, l'écu timbré de la couronne de comte » et précise que cette famille compte dans les familles qui seraient actuellement dans l'impossibilité de produire des titres authentiques prouvant leur noblesse[9]. Le Nécrologe mentionne que « la famille a conservé un reçu du commis à la recette du droit d'enregistrement des armoiries qui constate qu'en 1697, les armoiries du sieur Tyssandier d'Escous ont été déposées à l'Armorial général de France ». On y retrouve effectivement leur aïeul Antoine Tissandier, conseiller du roi, lieutenant particulier au bailliage de Salers, mais il portait de toutes autres armes : « De sinople a une tête de lion arrachée au naturel[10],[11] ».
-Engagement politique
-Ses études furent théologiques, agricoles et fondées sur l'histoire naturelle.
-Légitimiste fidèle, Ernest Tyssandier d'Escous fut le représentant de la ville de Salers et son arrondissement auprès du roi Louis XVIII, ainsi que membre du conseil général du département du Cantal.
-En 1848, il remplace son père au Conseil général et devient maire de Saint-Bonnet-de-Salers, mandats qu'il conservera pendant 20 ans.
-Louis de Ribier rapporte que le 7 octobre 1852, Léopold Bourlon de Rouvre, alors préfet du Cantal[12] avait rédigé cette note : « Propriétaire jouissant d'un revenu de 8 000 francs. Famille très honorable et ancienne, appartenant à la petite noblesse du Cantal. Sans éducation, sans instruction, a de l'esprit naturel et de l'autorité. Caractère très léger, n'a pas de tenue et possède des habitudes d'ivrognerie déplorables. Légitimiste, m'a cependant prêté un concours dévoué depuis le 2 décembre 1851. Sans influence, excepté dans la ville de Salers. Très déconsidéré dans le département, peu estimé de ses collègues. L'administration n'est pas intervenue dans cette élection. M. Tissandier ne pouvait avoir pour concurrent qu'un orléaniste déclaré et j'ai cru devoir conserver la neutralité en faveur d'un homme, peu honorable sans doute, mais qui s'était montré dévoué depuis huit ans[13] ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gabriel, Pierre, Marie-de-Lorette, Ernest, Philogone Tyssandier d'Escous est le fils aîné de Jean-Marie Tyssandier d'Escous, maire de Salers, et d'Iphigénie de Léotoing d'Anjony, fille de Claude-Louis de Léotoing (1750-1821), seigneur d'Anjony et de Bellestat, et de Catherine de Méallet de Fargues. De son mariage avec Marguerite Louise Charlotte de Pollalion de Glavenas, fille de Louis-Hercule de Pollalion, chasseur à cheval, et de Jeanne-Émilie de Sales du Doux (à Yolet), il eut six enfants.
+Par sa femme, Ernest Tyssandier d'Escous est l'oncle de Louis-Félix de La Salle de Rochemaure (connu plus tard comme duc de La Salle de Rochemaure (titre pontifical en 1899), qui reconstruira dans le style troubadour le château de Clavières-Ayrens, contribuera à la fondation de La Veillée d'Auvergne et à la sauvegarde du dialecte carladézien.
 </t>
         </is>
       </c>
@@ -536,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ernest_Tyssandier_d%27Escous</t>
+          <t>Ernest_Tyssandier_d'Escous</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,14 +555,96 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Origine familiale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille Tyssandier est une ancienne famille subsistante de Haute-Auvergne dont le nom veut dire Tisserand. Elle est originaire du bailliage d'Apchon d'où elle s'est transposée à la fin du XVIe siècle à Salers lorsqu'y a été transféré le Bailliage des Montagnes d'Auvergne. « Le premier auteur connu Gabriel Tyssandier ou plutôt Teyssandier, notarius ville Apchonii, était possessionné en 1512, au lieu de La Croze, paroisse de Collandres (Terrier d'Apchon suscité). On trouve après lui au village voisin de Peuvendrier (Puy Vendrier),  Antoine Tyssandier, juge ordinaire d'Apchon, et Jacques Tyssandier époux de Michelle de Cheyvialle, lieutenant particulier du Vaulmier.  Leur fils Antoine épousa le 9 février 1651 Jeanne Deflisque, fille de Jacques, coseigneur de La Garde, et de Gabrielle de La Broha, suivant contrat passé devant Garinot, notaire, de ce mariage vint Jean Tyssandier seigneur de Chaylus et de Puy-Vendrier, vivant en 1678 (Archives du Puy-de-Dôme, Fonds Ribier-Sartiges, liasse 14). C'est de cette souche que sont sortis les Tyssandier d'Escoutz qui émigrèrent du bailliage d'Apchon à celui de Salers ,».
+L'ancien fief d'Escouts a été apporté à la famille Tyssandier par le mariage en 1703 à Saint-Bonnet-de-Salers de François Tyssandier, lieutenant particulier civil et criminel au bailliage de Salers et de Jeanne-Louise de Landrodie, dame d'Escous, petite-fille de Jean de Landrodie, seigneur de Malpertuis et gentilhomme du prince de Condé, et de Jeanne de Saint-Julien, dame d'Escouts en 1601. La famille Tyssandier posséda aussi le fief de La Croze et, après 1781, celui de Leybros à Saint-Bonnet-de-Salers. Elle possédait non loin d'Escous, un petit château à Roche-Soutro. Elle éleva sur ses propriétés des chevaux de guerre et de trait. 
+Malgré un nom d'apparence nobiliaire (elle a ajouté le nom de la terre d'Escous  au XVIIIe siècle à son nom), la famille Tyssandier d'Escous n'a pas de principe de noblesse connu.
+L'ouvrage Le Nécrologe universel du XIXe siècle (1845) mentionne pour Jean-Marie Tyssandier d'Escous, maire de Salers (mort en 1845) les armes suivantes : « Parti d'azur aux deux croix d'argent et à la massue de même et de gueules aux trois étoiles d'argent et au lion de même, l'écu timbré de la couronne de comte » et précise que cette famille compte dans les familles qui seraient actuellement dans l'impossibilité de produire des titres authentiques prouvant leur noblesse. Le Nécrologe mentionne que « la famille a conservé un reçu du commis à la recette du droit d'enregistrement des armoiries qui constate qu'en 1697, les armoiries du sieur Tyssandier d'Escous ont été déposées à l'Armorial général de France ». On y retrouve effectivement leur aïeul Antoine Tissandier, conseiller du roi, lieutenant particulier au bailliage de Salers, mais il portait de toutes autres armes : « De sinople a une tête de lion arrachée au naturel, ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ernest_Tyssandier_d'Escous</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ernest_Tyssandier_d%27Escous</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Engagement politique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses études furent théologiques, agricoles et fondées sur l'histoire naturelle.
+Légitimiste fidèle, Ernest Tyssandier d'Escous fut le représentant de la ville de Salers et son arrondissement auprès du roi Louis XVIII, ainsi que membre du conseil général du département du Cantal.
+En 1848, il remplace son père au Conseil général et devient maire de Saint-Bonnet-de-Salers, mandats qu'il conservera pendant 20 ans.
+Louis de Ribier rapporte que le 7 octobre 1852, Léopold Bourlon de Rouvre, alors préfet du Cantal avait rédigé cette note : « Propriétaire jouissant d'un revenu de 8 000 francs. Famille très honorable et ancienne, appartenant à la petite noblesse du Cantal. Sans éducation, sans instruction, a de l'esprit naturel et de l'autorité. Caractère très léger, n'a pas de tenue et possède des habitudes d'ivrognerie déplorables. Légitimiste, m'a cependant prêté un concours dévoué depuis le 2 décembre 1851. Sans influence, excepté dans la ville de Salers. Très déconsidéré dans le département, peu estimé de ses collègues. L'administration n'est pas intervenue dans cette élection. M. Tissandier ne pouvait avoir pour concurrent qu'un orléaniste déclaré et j'ai cru devoir conserver la neutralité en faveur d'un homme, peu honorable sans doute, mais qui s'était montré dévoué depuis huit ans ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ernest_Tyssandier_d'Escous</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ernest_Tyssandier_d%27Escous</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>L'amélioration de la vache rouge de Haute-Auvergne</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Tyssandier d'Escous est considéré comme le rénovateur ou le restaurateur de la race Salers, même si son action s'inscrit dans la très longue histoire depuis la domestication de l'auroch.
 Le cheval fut sa première passion : écuyer consommé, il était connu pour les courses folles qu'il fera jusqu'à la fin de sa vie. Il cherche à améliorer l'espèce qu'il élève en introduisant du sang arabe.
-La ténacité de Tyssandier et sa très bonne connaissance de toutes les familles locales, firent le succès de son entreprise. Il possédait l'art de plaire, le don de la parole, le sens de l'organisation et une humeur facile et gaie qu'il répandait au milieu des bons repas qui se faisaient si souvent en Auvergne. Il était un vulgarisateur[14].
+La ténacité de Tyssandier et sa très bonne connaissance de toutes les familles locales, firent le succès de son entreprise. Il possédait l'art de plaire, le don de la parole, le sens de l'organisation et une humeur facile et gaie qu'il répandait au milieu des bons repas qui se faisaient si souvent en Auvergne. Il était un vulgarisateur.
 Passionné d'élevage, il s'arrêtait dans chaque étable, et il achetait ou signalait les sujets de la race bovine locale qui lui paraissaient les plus propres à servir de reproducteurs.
 Alors qu'il est maire de Saint-Bonnet-de-Salers, il étudie les systèmes d'élevage de la Nièvre, en particulier les méthodes de sélection de la race Charolaise, afin d'obtenir des animaux un engraissement facile et précoce. 
 En 1845, il commença les prairies artificielles et prit la tête du comice agricole puis il ensemence 9 hectares en pommes de terre à Escous. Il introduit la charrue à versoir.
@@ -577,64 +663,68 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Ernest_Tyssandier_d%27Escous</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ernest_Tyssandier_d'Escous</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ernest_Tyssandier_d%27Escous</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Par arrêté du ministre de l'agriculture en date du 6 juin 1884, il est décoré de l'ordre du Mérite agricole à l'occasion du concours de la race de Salers à Mauriac[15].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Par arrêté du ministre de l'agriculture en date du 6 juin 1884, il est décoré de l'ordre du Mérite agricole à l'occasion du concours de la race de Salers à Mauriac.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Ernest_Tyssandier_d%27Escous</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ernest_Tyssandier_d'Escous</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ernest_Tyssandier_d%27Escous</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Hommages et postérité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sur proposition de Jules Sérieys, instituteur de Saint-Bonnet-de-Salers, la Ville de Salers a inauguré en 1897 un monument commémoratif dont le buste en bronze à son effigie a été réalisé par Jean-Baptiste Antoine Champeil (1866-1913), situé sur la plus grande place de la ville, devenue place Tyssandier d'Escous. En 1943, pour échapper à la campagne de récupération de métaux non ferreux lancée par le régime de Vichy, après l'invasion de la Zone libre, le buste fut retiré de son piédestal dans la nuit du 14 décembre avec ce message : « Je reviendrai quand les Boches seront partis »[16].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sur proposition de Jules Sérieys, instituteur de Saint-Bonnet-de-Salers, la Ville de Salers a inauguré en 1897 un monument commémoratif dont le buste en bronze à son effigie a été réalisé par Jean-Baptiste Antoine Champeil (1866-1913), situé sur la plus grande place de la ville, devenue place Tyssandier d'Escous. En 1943, pour échapper à la campagne de récupération de métaux non ferreux lancée par le régime de Vichy, après l'invasion de la Zone libre, le buste fut retiré de son piédestal dans la nuit du 14 décembre avec ce message : « Je reviendrai quand les Boches seront partis ».
 </t>
         </is>
       </c>
